--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2403141722858</v>
+        <v>11.4473355</v>
       </c>
       <c r="H2">
-        <v>11.2403141722858</v>
+        <v>22.894671</v>
       </c>
       <c r="I2">
-        <v>0.3300196969831207</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J2">
-        <v>0.3300196969831207</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2356578691205</v>
+        <v>70.2375145</v>
       </c>
       <c r="N2">
-        <v>70.2356578691205</v>
+        <v>140.475029</v>
       </c>
       <c r="O2">
-        <v>0.5972432053378556</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P2">
-        <v>0.5972432053378556</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q2">
-        <v>789.4708605460918</v>
+        <v>804.0323931676147</v>
       </c>
       <c r="R2">
-        <v>789.4708605460918</v>
+        <v>3216.129572670459</v>
       </c>
       <c r="S2">
-        <v>0.1971020216508268</v>
+        <v>0.1764484122457633</v>
       </c>
       <c r="T2">
-        <v>0.1971020216508268</v>
+        <v>0.1156895295431395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2403141722858</v>
+        <v>11.4473355</v>
       </c>
       <c r="H3">
-        <v>11.2403141722858</v>
+        <v>22.894671</v>
       </c>
       <c r="I3">
-        <v>0.3300196969831207</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J3">
-        <v>0.3300196969831207</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61267534780753</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N3">
-        <v>2.61267534780753</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.0222166723651891</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P3">
-        <v>0.0222166723651891</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q3">
-        <v>29.36729173954271</v>
+        <v>32.107494241957</v>
       </c>
       <c r="R3">
-        <v>29.36729173954271</v>
+        <v>192.644965451742</v>
       </c>
       <c r="S3">
-        <v>0.007331939481932979</v>
+        <v>0.007046129519563106</v>
       </c>
       <c r="T3">
-        <v>0.007331939481932979</v>
+        <v>0.006929759799279717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2403141722858</v>
+        <v>11.4473355</v>
       </c>
       <c r="H4">
-        <v>11.2403141722858</v>
+        <v>22.894671</v>
       </c>
       <c r="I4">
-        <v>0.3300196969831207</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J4">
-        <v>0.3300196969831207</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>43.2917111739136</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>43.2917111739136</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.3681275456157778</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P4">
-        <v>0.3681275456157778</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q4">
-        <v>486.6124346506445</v>
+        <v>1.2165579487055</v>
       </c>
       <c r="R4">
-        <v>486.6124346506445</v>
+        <v>7.299347692233</v>
       </c>
       <c r="S4">
-        <v>0.1214893410552589</v>
+        <v>0.0002669789429855703</v>
       </c>
       <c r="T4">
-        <v>0.1214893410552589</v>
+        <v>0.0002625696761915769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2403141722858</v>
+        <v>11.4473355</v>
       </c>
       <c r="H5">
-        <v>11.2403141722858</v>
+        <v>22.894671</v>
       </c>
       <c r="I5">
-        <v>0.3300196969831207</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J5">
-        <v>0.3300196969831207</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45971604408666</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N5">
-        <v>1.45971604408666</v>
+        <v>132.89777</v>
       </c>
       <c r="O5">
-        <v>0.01241257668117757</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P5">
-        <v>0.01241257668117757</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q5">
-        <v>16.40766693786025</v>
+        <v>507.108453463945</v>
       </c>
       <c r="R5">
-        <v>16.40766693786025</v>
+        <v>3042.65072078367</v>
       </c>
       <c r="S5">
-        <v>0.004096394795101973</v>
+        <v>0.11128715983395</v>
       </c>
       <c r="T5">
-        <v>0.004096394795101973</v>
+        <v>0.1094492067243664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.31667516751791</v>
+        <v>11.4473355</v>
       </c>
       <c r="H6">
-        <v>1.31667516751791</v>
+        <v>22.894671</v>
       </c>
       <c r="I6">
-        <v>0.03865806001053222</v>
+        <v>0.3003257587641364</v>
       </c>
       <c r="J6">
-        <v>0.03865806001053222</v>
+        <v>0.2357910158160937</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.2356578691205</v>
+        <v>2.1006075</v>
       </c>
       <c r="N6">
-        <v>70.2356578691205</v>
+        <v>4.201215</v>
       </c>
       <c r="O6">
-        <v>0.5972432053378556</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P6">
-        <v>0.5972432053378556</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q6">
-        <v>92.47754659055485</v>
+        <v>24.04635880631625</v>
       </c>
       <c r="R6">
-        <v>92.47754659055485</v>
+        <v>96.18543522526501</v>
       </c>
       <c r="S6">
-        <v>0.02308826367283344</v>
+        <v>0.005277078221874469</v>
       </c>
       <c r="T6">
-        <v>0.02308826367283344</v>
+        <v>0.003459950073116419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.31667516751791</v>
+        <v>1.342192</v>
       </c>
       <c r="H7">
-        <v>1.31667516751791</v>
+        <v>4.026576</v>
       </c>
       <c r="I7">
-        <v>0.03865806001053222</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J7">
-        <v>0.03865806001053222</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.61267534780753</v>
+        <v>70.2375145</v>
       </c>
       <c r="N7">
-        <v>2.61267534780753</v>
+        <v>140.475029</v>
       </c>
       <c r="O7">
-        <v>0.0222166723651891</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P7">
-        <v>0.0222166723651891</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q7">
-        <v>3.440044751244394</v>
+        <v>94.27223006178401</v>
       </c>
       <c r="R7">
-        <v>3.440044751244394</v>
+        <v>565.6333803707041</v>
       </c>
       <c r="S7">
-        <v>0.0008588534535278132</v>
+        <v>0.0206884516775948</v>
       </c>
       <c r="T7">
-        <v>0.0008588534535278132</v>
+        <v>0.0203467734089604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.31667516751791</v>
+        <v>1.342192</v>
       </c>
       <c r="H8">
-        <v>1.31667516751791</v>
+        <v>4.026576</v>
       </c>
       <c r="I8">
-        <v>0.03865806001053222</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J8">
-        <v>0.03865806001053222</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.2917111739136</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N8">
-        <v>43.2917111739136</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.3681275456157778</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P8">
-        <v>0.3681275456157778</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q8">
-        <v>57.00112106204966</v>
+        <v>3.764581016394667</v>
       </c>
       <c r="R8">
-        <v>57.00112106204966</v>
+        <v>33.881229147552</v>
       </c>
       <c r="S8">
-        <v>0.01423109674994467</v>
+        <v>0.0008261537081813881</v>
       </c>
       <c r="T8">
-        <v>0.01423109674994467</v>
+        <v>0.001218764161037498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.31667516751791</v>
+        <v>1.342192</v>
       </c>
       <c r="H9">
-        <v>1.31667516751791</v>
+        <v>4.026576</v>
       </c>
       <c r="I9">
-        <v>0.03865806001053222</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J9">
-        <v>0.03865806001053222</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.45971604408666</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N9">
-        <v>1.45971604408666</v>
+        <v>0.318823</v>
       </c>
       <c r="O9">
-        <v>0.01241257668117757</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P9">
-        <v>0.01241257668117757</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q9">
-        <v>1.921971866876384</v>
+        <v>0.1426405600053333</v>
       </c>
       <c r="R9">
-        <v>1.921971866876384</v>
+        <v>1.283765040048</v>
       </c>
       <c r="S9">
-        <v>0.0004798461342262955</v>
+        <v>3.130309244834211E-05</v>
       </c>
       <c r="T9">
-        <v>0.0004798461342262955</v>
+        <v>4.617916354774328E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.44367769911693</v>
+        <v>1.342192</v>
       </c>
       <c r="H10">
-        <v>2.44367769911693</v>
+        <v>4.026576</v>
       </c>
       <c r="I10">
-        <v>0.07174726270333232</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J10">
-        <v>0.07174726270333232</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>70.2356578691205</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N10">
-        <v>70.2356578691205</v>
+        <v>132.89777</v>
       </c>
       <c r="O10">
-        <v>0.5972432053378556</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P10">
-        <v>0.5972432053378556</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q10">
-        <v>171.6333108175763</v>
+        <v>59.45810790394668</v>
       </c>
       <c r="R10">
-        <v>171.6333108175763</v>
+        <v>535.1229711355201</v>
       </c>
       <c r="S10">
-        <v>0.04285056515115537</v>
+        <v>0.01304834086778089</v>
       </c>
       <c r="T10">
-        <v>0.04285056515115537</v>
+        <v>0.01924926324625379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.44367769911693</v>
+        <v>1.342192</v>
       </c>
       <c r="H11">
-        <v>2.44367769911693</v>
+        <v>4.026576</v>
       </c>
       <c r="I11">
-        <v>0.07174726270333232</v>
+        <v>0.03521298303934167</v>
       </c>
       <c r="J11">
-        <v>0.07174726270333232</v>
+        <v>0.04146949503230264</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.61267534780753</v>
+        <v>2.1006075</v>
       </c>
       <c r="N11">
-        <v>2.61267534780753</v>
+        <v>4.201215</v>
       </c>
       <c r="O11">
-        <v>0.0222166723651891</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P11">
-        <v>0.0222166723651891</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q11">
-        <v>6.384536482469829</v>
+        <v>2.81941858164</v>
       </c>
       <c r="R11">
-        <v>6.384536482469829</v>
+        <v>16.91651148984</v>
       </c>
       <c r="S11">
-        <v>0.001593985428579086</v>
+        <v>0.0006187336933362474</v>
       </c>
       <c r="T11">
-        <v>0.001593985428579086</v>
+        <v>0.0006085150525032144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.44367769911693</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H12">
-        <v>2.44367769911693</v>
+        <v>7.60376</v>
       </c>
       <c r="I12">
-        <v>0.07174726270333232</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J12">
-        <v>0.07174726270333232</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.2917111739136</v>
+        <v>70.2375145</v>
       </c>
       <c r="N12">
-        <v>43.2917111739136</v>
+        <v>140.475029</v>
       </c>
       <c r="O12">
-        <v>0.3681275456157778</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P12">
-        <v>0.3681275456157778</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q12">
-        <v>105.7909891523039</v>
+        <v>178.0230677515067</v>
       </c>
       <c r="R12">
-        <v>105.7909891523039</v>
+        <v>1068.13840650904</v>
       </c>
       <c r="S12">
-        <v>0.02641214372362816</v>
+        <v>0.0390679379522523</v>
       </c>
       <c r="T12">
-        <v>0.02641214372362816</v>
+        <v>0.03842271492606043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,122 +1216,122 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.44367769911693</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H13">
-        <v>2.44367769911693</v>
+        <v>7.60376</v>
       </c>
       <c r="I13">
-        <v>0.07174726270333232</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J13">
-        <v>0.07174726270333232</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.45971604408666</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N13">
-        <v>1.45971604408666</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O13">
-        <v>0.01241257668117757</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P13">
-        <v>0.01241257668117757</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q13">
-        <v>3.567075543977756</v>
+        <v>7.109010372391111</v>
       </c>
       <c r="R13">
-        <v>3.567075543977756</v>
+        <v>63.98109335151999</v>
       </c>
       <c r="S13">
-        <v>0.0008905683999697042</v>
+        <v>0.001560103303680674</v>
       </c>
       <c r="T13">
-        <v>0.0008905683999697042</v>
+        <v>0.002301506336185008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.00488219205462</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H14">
-        <v>2.00488219205462</v>
+        <v>7.60376</v>
       </c>
       <c r="I14">
-        <v>0.05886406762011074</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J14">
-        <v>0.05886406762011074</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>70.2356578691205</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N14">
-        <v>70.2356578691205</v>
+        <v>0.318823</v>
       </c>
       <c r="O14">
-        <v>0.5972432053378556</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P14">
-        <v>0.5972432053378556</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q14">
-        <v>140.8142197090406</v>
+        <v>0.2693615082755556</v>
       </c>
       <c r="R14">
-        <v>140.8142197090406</v>
+        <v>2.42425357448</v>
       </c>
       <c r="S14">
-        <v>0.03515616442465921</v>
+        <v>5.911255673182521E-05</v>
       </c>
       <c r="T14">
-        <v>0.03515616442465921</v>
+        <v>8.720443290224461E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.00488219205462</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H15">
-        <v>2.00488219205462</v>
+        <v>7.60376</v>
       </c>
       <c r="I15">
-        <v>0.05886406762011074</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J15">
-        <v>0.05886406762011074</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.61267534780753</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N15">
-        <v>2.61267534780753</v>
+        <v>132.89777</v>
       </c>
       <c r="O15">
-        <v>0.0222166723651891</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P15">
-        <v>0.0222166723651891</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q15">
-        <v>5.238106278439428</v>
+        <v>112.2803052905778</v>
       </c>
       <c r="R15">
-        <v>5.238106278439428</v>
+        <v>1010.5227476152</v>
       </c>
       <c r="S15">
-        <v>0.001307763704398337</v>
+        <v>0.02464040225660651</v>
       </c>
       <c r="T15">
-        <v>0.001307763704398337</v>
+        <v>0.03635018385380897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.00488219205462</v>
+        <v>2.534586666666667</v>
       </c>
       <c r="H16">
-        <v>2.00488219205462</v>
+        <v>7.60376</v>
       </c>
       <c r="I16">
-        <v>0.05886406762011074</v>
+        <v>0.0664959687623491</v>
       </c>
       <c r="J16">
-        <v>0.05886406762011074</v>
+        <v>0.07831072542696861</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.2917111739136</v>
+        <v>2.1006075</v>
       </c>
       <c r="N16">
-        <v>43.2917111739136</v>
+        <v>4.201215</v>
       </c>
       <c r="O16">
-        <v>0.3681275456157778</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P16">
-        <v>0.3681275456157778</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q16">
-        <v>86.79478079615139</v>
+        <v>5.324171761400001</v>
       </c>
       <c r="R16">
-        <v>86.79478079615139</v>
+        <v>31.9450305684</v>
       </c>
       <c r="S16">
-        <v>0.02166948473795254</v>
+        <v>0.001168412693077797</v>
       </c>
       <c r="T16">
-        <v>0.02166948473795254</v>
+        <v>0.001149115878011949</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.00488219205462</v>
+        <v>2.071032666666667</v>
       </c>
       <c r="H17">
-        <v>2.00488219205462</v>
+        <v>6.213098</v>
       </c>
       <c r="I17">
-        <v>0.05886406762011074</v>
+        <v>0.05433443066659307</v>
       </c>
       <c r="J17">
-        <v>0.05886406762011074</v>
+        <v>0.06398837042842591</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.45971604408666</v>
+        <v>70.2375145</v>
       </c>
       <c r="N17">
-        <v>1.45971604408666</v>
+        <v>140.475029</v>
       </c>
       <c r="O17">
-        <v>0.01241257668117757</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P17">
-        <v>0.01241257668117757</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q17">
-        <v>2.926558702245761</v>
+        <v>145.4641869549737</v>
       </c>
       <c r="R17">
-        <v>2.926558702245761</v>
+        <v>872.7851217298421</v>
       </c>
       <c r="S17">
-        <v>0.0007306547531006465</v>
+        <v>0.03192274968637396</v>
       </c>
       <c r="T17">
-        <v>0.0007306547531006465</v>
+        <v>0.03139553237630806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.8286083263414</v>
+        <v>2.071032666666667</v>
       </c>
       <c r="H18">
-        <v>11.8286083263414</v>
+        <v>6.213098</v>
       </c>
       <c r="I18">
-        <v>0.3472922265123277</v>
+        <v>0.05433443066659307</v>
       </c>
       <c r="J18">
-        <v>0.3472922265123277</v>
+        <v>0.06398837042842591</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>70.2356578691205</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N18">
-        <v>70.2356578691205</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O18">
-        <v>0.5972432053378556</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P18">
-        <v>0.5972432053378556</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q18">
-        <v>830.7900874767446</v>
+        <v>5.808833804155111</v>
       </c>
       <c r="R18">
-        <v>830.7900874767446</v>
+        <v>52.279504237396</v>
       </c>
       <c r="S18">
-        <v>0.2074179225511432</v>
+        <v>0.001274773890271627</v>
       </c>
       <c r="T18">
-        <v>0.2074179225511432</v>
+        <v>0.001880580714585731</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.8286083263414</v>
+        <v>2.071032666666667</v>
       </c>
       <c r="H19">
-        <v>11.8286083263414</v>
+        <v>6.213098</v>
       </c>
       <c r="I19">
-        <v>0.3472922265123277</v>
+        <v>0.05433443066659307</v>
       </c>
       <c r="J19">
-        <v>0.3472922265123277</v>
+        <v>0.06398837042842591</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.61267534780753</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N19">
-        <v>2.61267534780753</v>
+        <v>0.318823</v>
       </c>
       <c r="O19">
-        <v>0.0222166723651891</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P19">
-        <v>0.0222166723651891</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q19">
-        <v>30.90431337310306</v>
+        <v>0.2200976159615556</v>
       </c>
       <c r="R19">
-        <v>30.90431337310306</v>
+        <v>1.980878543654</v>
       </c>
       <c r="S19">
-        <v>0.007715677611401425</v>
+        <v>4.830138089647619E-05</v>
       </c>
       <c r="T19">
-        <v>0.007715677611401425</v>
+        <v>7.125549565689477E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.8286083263414</v>
+        <v>2.071032666666667</v>
       </c>
       <c r="H20">
-        <v>11.8286083263414</v>
+        <v>6.213098</v>
       </c>
       <c r="I20">
-        <v>0.3472922265123277</v>
+        <v>0.05433443066659307</v>
       </c>
       <c r="J20">
-        <v>0.3472922265123277</v>
+        <v>0.06398837042842591</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>43.2917111739136</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N20">
-        <v>43.2917111739136</v>
+        <v>132.89777</v>
       </c>
       <c r="O20">
-        <v>0.3681275456157778</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P20">
-        <v>0.3681275456157778</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q20">
-        <v>512.0806952533213</v>
+        <v>91.7452076657178</v>
       </c>
       <c r="R20">
-        <v>512.0806952533213</v>
+        <v>825.7068689914602</v>
       </c>
       <c r="S20">
-        <v>0.1278478349574219</v>
+        <v>0.02013388560129692</v>
       </c>
       <c r="T20">
-        <v>0.1278478349574219</v>
+        <v>0.02970204932845497</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.8286083263414</v>
+        <v>2.071032666666667</v>
       </c>
       <c r="H21">
-        <v>11.8286083263414</v>
+        <v>6.213098</v>
       </c>
       <c r="I21">
-        <v>0.3472922265123277</v>
+        <v>0.05433443066659307</v>
       </c>
       <c r="J21">
-        <v>0.3472922265123277</v>
+        <v>0.06398837042842591</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.45971604408666</v>
+        <v>2.1006075</v>
       </c>
       <c r="N21">
-        <v>1.45971604408666</v>
+        <v>4.201215</v>
       </c>
       <c r="O21">
-        <v>0.01241257668117757</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P21">
-        <v>0.01241257668117757</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q21">
-        <v>17.26640935317759</v>
+        <v>4.350426752345001</v>
       </c>
       <c r="R21">
-        <v>17.26640935317759</v>
+        <v>26.10256051407</v>
       </c>
       <c r="S21">
-        <v>0.004310791392361159</v>
+        <v>0.0009547201077540949</v>
       </c>
       <c r="T21">
-        <v>0.004310791392361159</v>
+        <v>0.00093895251342024</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.22536760145198</v>
+        <v>14.916697</v>
       </c>
       <c r="H22">
-        <v>5.22536760145198</v>
+        <v>44.750091</v>
       </c>
       <c r="I22">
-        <v>0.1534186861705765</v>
+        <v>0.3913459463802487</v>
       </c>
       <c r="J22">
-        <v>0.1534186861705765</v>
+        <v>0.460878840091331</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>70.2356578691205</v>
+        <v>70.2375145</v>
       </c>
       <c r="N22">
-        <v>70.2356578691205</v>
+        <v>140.475029</v>
       </c>
       <c r="O22">
-        <v>0.5972432053378556</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P22">
-        <v>0.5972432053378556</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q22">
-        <v>367.0071310959681</v>
+        <v>1047.711721829607</v>
       </c>
       <c r="R22">
-        <v>367.0071310959681</v>
+        <v>6286.27033097764</v>
       </c>
       <c r="S22">
-        <v>0.09162826788723764</v>
+        <v>0.2299249027514866</v>
       </c>
       <c r="T22">
-        <v>0.09162826788723764</v>
+        <v>0.2261275986364986</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.22536760145198</v>
+        <v>14.916697</v>
       </c>
       <c r="H23">
-        <v>5.22536760145198</v>
+        <v>44.750091</v>
       </c>
       <c r="I23">
-        <v>0.1534186861705765</v>
+        <v>0.3913459463802487</v>
       </c>
       <c r="J23">
-        <v>0.1534186861705765</v>
+        <v>0.460878840091331</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.61267534780753</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N23">
-        <v>2.61267534780753</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O23">
-        <v>0.0222166723651891</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P23">
-        <v>0.0222166723651891</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q23">
-        <v>13.65218911554575</v>
+        <v>41.83836169006467</v>
       </c>
       <c r="R23">
-        <v>13.65218911554575</v>
+        <v>376.545255210582</v>
       </c>
       <c r="S23">
-        <v>0.003408452685349467</v>
+        <v>0.009181610783232345</v>
       </c>
       <c r="T23">
-        <v>0.003408452685349467</v>
+        <v>0.01354495907042775</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.22536760145198</v>
+        <v>14.916697</v>
       </c>
       <c r="H24">
-        <v>5.22536760145198</v>
+        <v>44.750091</v>
       </c>
       <c r="I24">
-        <v>0.1534186861705765</v>
+        <v>0.3913459463802487</v>
       </c>
       <c r="J24">
-        <v>0.1534186861705765</v>
+        <v>0.460878840091331</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>43.2917111739136</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N24">
-        <v>43.2917111739136</v>
+        <v>0.318823</v>
       </c>
       <c r="O24">
-        <v>0.3681275456157778</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P24">
-        <v>0.3681275456157778</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q24">
-        <v>226.2151049795848</v>
+        <v>1.585262029210334</v>
       </c>
       <c r="R24">
-        <v>226.2151049795848</v>
+        <v>14.267358262893</v>
       </c>
       <c r="S24">
-        <v>0.0564776443915716</v>
+        <v>0.0003478926600776249</v>
       </c>
       <c r="T24">
-        <v>0.0564776443915716</v>
+        <v>0.0005132206050662883</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>14.916697</v>
+      </c>
+      <c r="H25">
+        <v>44.750091</v>
+      </c>
+      <c r="I25">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J25">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N25">
+        <v>132.89777</v>
+      </c>
+      <c r="O25">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P25">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q25">
+        <v>660.7985890218968</v>
+      </c>
+      <c r="R25">
+        <v>5947.187301197071</v>
+      </c>
+      <c r="S25">
+        <v>0.1450151297857569</v>
+      </c>
+      <c r="T25">
+        <v>0.2139302181190203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.916697</v>
+      </c>
+      <c r="H26">
+        <v>44.750091</v>
+      </c>
+      <c r="I26">
+        <v>0.3913459463802487</v>
+      </c>
+      <c r="J26">
+        <v>0.460878840091331</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.1006075</v>
+      </c>
+      <c r="N26">
+        <v>4.201215</v>
+      </c>
+      <c r="O26">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P26">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q26">
+        <v>31.3341255934275</v>
+      </c>
+      <c r="R26">
+        <v>188.004753560565</v>
+      </c>
+      <c r="S26">
+        <v>0.006876410399695216</v>
+      </c>
+      <c r="T26">
+        <v>0.006762843660318003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.22536760145198</v>
-      </c>
-      <c r="H25">
-        <v>5.22536760145198</v>
-      </c>
-      <c r="I25">
-        <v>0.1534186861705765</v>
-      </c>
-      <c r="J25">
-        <v>0.1534186861705765</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="N25">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="O25">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="P25">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="Q25">
-        <v>7.627552924090083</v>
-      </c>
-      <c r="R25">
-        <v>7.627552924090083</v>
-      </c>
-      <c r="S25">
-        <v>0.001904321206417798</v>
-      </c>
-      <c r="T25">
-        <v>0.001904321206417798</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.804552</v>
+      </c>
+      <c r="H27">
+        <v>11.609104</v>
+      </c>
+      <c r="I27">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J27">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>70.2375145</v>
+      </c>
+      <c r="N27">
+        <v>140.475029</v>
+      </c>
+      <c r="O27">
+        <v>0.5875234044920492</v>
+      </c>
+      <c r="P27">
+        <v>0.4906443493732269</v>
+      </c>
+      <c r="Q27">
+        <v>407.697305266004</v>
+      </c>
+      <c r="R27">
+        <v>1630.789221064016</v>
+      </c>
+      <c r="S27">
+        <v>0.08947095017857823</v>
+      </c>
+      <c r="T27">
+        <v>0.05866220048225981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.804552</v>
+      </c>
+      <c r="H28">
+        <v>11.609104</v>
+      </c>
+      <c r="I28">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J28">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N28">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.02346162230159168</v>
+      </c>
+      <c r="P28">
+        <v>0.02938941407625393</v>
+      </c>
+      <c r="Q28">
+        <v>16.28061131930133</v>
+      </c>
+      <c r="R28">
+        <v>97.68366791580799</v>
+      </c>
+      <c r="S28">
+        <v>0.003572851096662544</v>
+      </c>
+      <c r="T28">
+        <v>0.003513843994738224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.804552</v>
+      </c>
+      <c r="H29">
+        <v>11.609104</v>
+      </c>
+      <c r="I29">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J29">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.318823</v>
+      </c>
+      <c r="O29">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P29">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q29">
+        <v>0.6168748940986668</v>
+      </c>
+      <c r="R29">
+        <v>3.701249364592</v>
+      </c>
+      <c r="S29">
+        <v>0.0001353758835376825</v>
+      </c>
+      <c r="T29">
+        <v>0.000133140095271705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.804552</v>
+      </c>
+      <c r="H30">
+        <v>11.609104</v>
+      </c>
+      <c r="I30">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J30">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N30">
+        <v>132.89777</v>
+      </c>
+      <c r="O30">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P30">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q30">
+        <v>257.1373388830133</v>
+      </c>
+      <c r="R30">
+        <v>1542.82403329808</v>
+      </c>
+      <c r="S30">
+        <v>0.05642990949190526</v>
+      </c>
+      <c r="T30">
+        <v>0.0554979463815256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.804552</v>
+      </c>
+      <c r="H31">
+        <v>11.609104</v>
+      </c>
+      <c r="I31">
+        <v>0.1522849123873311</v>
+      </c>
+      <c r="J31">
+        <v>0.119561553204878</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1006075</v>
+      </c>
+      <c r="N31">
+        <v>4.201215</v>
+      </c>
+      <c r="O31">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P31">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q31">
+        <v>12.19308546534</v>
+      </c>
+      <c r="R31">
+        <v>48.77234186136</v>
+      </c>
+      <c r="S31">
+        <v>0.002675825736647441</v>
+      </c>
+      <c r="T31">
+        <v>0.001754422251082626</v>
       </c>
     </row>
   </sheetData>
